--- a/DaiPhatDat.WebHost/Areas/Task/Content/Templates/TemplateProjectReport.xlsx
+++ b/DaiPhatDat.WebHost/Areas/Task/Content/Templates/TemplateProjectReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\E-Office-New\E-Office\E-Office\Web\SurePortal.WebHost\Areas\Task\Content\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectOfficeGit\ProjectOffice\DaiPhatDat.WebHost\Areas\Task\Content\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B234B4-5B20-435E-A772-36640C3ADD1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dinh Van Vo</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="O10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="P10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,9 +317,6 @@
     <t>BÁO CÁO CÔNG VIỆC CÁ NHÂN</t>
   </si>
   <si>
-    <t>Cá nhân : {{ userName }}</t>
-  </si>
-  <si>
     <t>Người giao</t>
   </si>
   <si>
@@ -451,12 +447,15 @@
   </si>
   <si>
     <t>Quá hạn</t>
+  </si>
+  <si>
+    <t>Báo cáo cho : {{ userName }}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,6 +677,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,15 +715,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -812,23 +811,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -864,23 +846,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1056,11 +1021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6640A0F-3DDE-4795-ABC4-39E5A30C164E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,42 +1038,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -1129,7 +1094,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1221,12 +1186,12 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="15"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -1245,13 +1210,13 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
@@ -1265,20 +1230,20 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1292,11 +1257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,42 +1283,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -1374,7 +1339,7 @@
     </row>
     <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1450,153 +1415,153 @@
     </row>
     <row r="8" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:31" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="26" t="s">
+      <c r="L9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="26" t="s">
+      <c r="O9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="18" t="s">
+      <c r="P10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="O11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="P11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="Q11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="R11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="S11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="T11" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -1714,6 +1679,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="N9:N10"/>
@@ -1726,13 +1698,6 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
